--- a/biology/Zoologie/Cephalotes_frigidus/Cephalotes_frigidus.xlsx
+++ b/biology/Zoologie/Cephalotes_frigidus/Cephalotes_frigidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes frigidus est une espèce de fourmi arboricole du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes frigidus est une espèce de fourmi arboricole du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est native de l'Ouest du Brésil, ou l'espèce  a été enregistrée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est native de l'Ouest du Brésil, ou l'espèce  a été enregistrée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste Walter W. Kempf en 1960.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
